--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Import.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\excel_ template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA24F2F-EECA-41EB-9BCC-091CE94EFCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413FF78-A89D-48A1-9BE1-3AA878F5D413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chi tiết phiếu nhập" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Tên nguyên liệu</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Mã phiếu nhập</t>
   </si>
   <si>
-    <t>Sữa Đặc</t>
+    <t>Đường túi</t>
+  </si>
+  <si>
+    <t>Sữa đặc</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>45371</v>
+        <v>45413</v>
       </c>
       <c r="E2" s="2">
-        <v>45767</v>
+        <v>45797</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -440,19 +443,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="E3" s="2">
-        <v>45767</v>
+        <v>45797</v>
       </c>
       <c r="F3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45797</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
